--- a/Lincoln/Rougue/rouge_test.xlsx
+++ b/Lincoln/Rougue/rouge_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RST Rouge" sheetId="1" r:id="rId1"/>
@@ -924,8 +924,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -949,7 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -959,6 +965,9 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -968,6 +977,9 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1260,9 +1272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0"/>
+    <sheetView topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="F285" sqref="F285"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
@@ -6784,6 +6798,28 @@
       </c>
       <c r="F276">
         <v>6.8970000000000004E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="B277">
+        <f>AVERAGE(B2:B276)</f>
+        <v>0.41068581818181815</v>
+      </c>
+      <c r="C277">
+        <f t="shared" ref="C277:F277" si="0">AVERAGE(C2:C276)</f>
+        <v>0.13896661818181816</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="0"/>
+        <v>9.6284109090909106E-2</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="0"/>
+        <v>0.39174210909090901</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="0"/>
+        <v>0.16028480000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6800,8 +6836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B279" sqref="B279:F279"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12349,24 +12385,15 @@
       </c>
     </row>
     <row r="279" spans="1:6">
-      <c r="B279" s="1">
-        <v>0.21590010900000001</v>
-      </c>
-      <c r="C279" s="1">
-        <v>2.7182291000000001E-2</v>
-      </c>
-      <c r="D279" s="1">
-        <v>3.3225450000000001E-3</v>
-      </c>
-      <c r="E279" s="1">
-        <v>0.2007592</v>
-      </c>
-      <c r="F279" s="1">
-        <v>2.5345636000000001E-2</v>
-      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12377,9 +12404,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E281" sqref="E281"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
@@ -17901,6 +17930,62 @@
       </c>
       <c r="F276">
         <v>9.8499999999999994E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="B277">
+        <f>AVERAGE(B2:B276)</f>
+        <v>0.21881629090909105</v>
+      </c>
+      <c r="C277">
+        <f t="shared" ref="C277:F277" si="0">AVERAGE(C2:C276)</f>
+        <v>2.5662581818181825E-2</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="0"/>
+        <v>3.305527272727273E-3</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="0"/>
+        <v>0.20237854545454553</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="0"/>
+        <v>2.3354545454545461E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="B279">
+        <v>0.20571981818181809</v>
+      </c>
+      <c r="C279">
+        <v>2.454054545454544E-2</v>
+      </c>
+      <c r="D279">
+        <v>3.0872363636363634E-3</v>
+      </c>
+      <c r="E279">
+        <v>0.18964818181818191</v>
+      </c>
+      <c r="F279">
+        <v>2.312472727272729E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="B281">
+        <v>0.21590010909090904</v>
+      </c>
+      <c r="C281">
+        <v>2.7182290909090915E-2</v>
+      </c>
+      <c r="D281">
+        <v>3.3225454545454543E-3</v>
+      </c>
+      <c r="E281">
+        <v>0.20075920000000011</v>
+      </c>
+      <c r="F281">
+        <v>2.5345636363636365E-2</v>
       </c>
     </row>
   </sheetData>
@@ -23481,7 +23566,7 @@
   <dimension ref="A1:F279"/>
   <sheetViews>
     <sheetView topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277:F277"/>
+      <selection activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
